--- a/Other Files/Planning/Tore_Alden_RLC_Content_Calendar_12wk_Notion_PowerBI.xlsx
+++ b/Other Files/Planning/Tore_Alden_RLC_Content_Calendar_12wk_Notion_PowerBI.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torem\Dropbox\RLC Documents\LLM Model and Documents\Projects\RLC-Agent\Other Files\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4002E188-FE2C-4B1E-89D4-CB85A6AD5B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532FB2CE-6DC0-43BE-B6F8-C23E03D4795C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="27585" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7050" yWindow="2430" windowWidth="21600" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12_Week_Calendar" sheetId="1" r:id="rId1"/>
     <sheet name="Taxonomy" sheetId="2" r:id="rId2"/>
     <sheet name="Engagement_Log_Template" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="328">
   <si>
     <t>Post Date</t>
   </si>
@@ -844,15 +845,253 @@
   </si>
   <si>
     <t>Engagement Rate</t>
+  </si>
+  <si>
+    <t>Week 1 Tasks (Jan 5-11)</t>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Content Item</t>
+  </si>
+  <si>
+    <t>Task Type</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Est. (min)</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Research SAF capacity data Q1 2026</t>
+  </si>
+  <si>
+    <t>SAF Watch Jan 5</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>Write SAF Watch draft</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>Create SAF capacity chart</t>
+  </si>
+  <si>
+    <t>Chart Creation</t>
+  </si>
+  <si>
+    <t>Edit and finalize SAF Watch</t>
+  </si>
+  <si>
+    <t>Editing</t>
+  </si>
+  <si>
+    <t>Pull soy oil/ULSD spread data</t>
+  </si>
+  <si>
+    <t>Chart of Day Jan 6</t>
+  </si>
+  <si>
+    <t>Data Gathering</t>
+  </si>
+  <si>
+    <t>Create spread chart</t>
+  </si>
+  <si>
+    <t>Write 2-bullet caption</t>
+  </si>
+  <si>
+    <t>Gather CONAB/USDA Brazil data</t>
+  </si>
+  <si>
+    <t>Brazil Update Jan 7</t>
+  </si>
+  <si>
+    <t>Write Brazil Update</t>
+  </si>
+  <si>
+    <r>
+      <t>ALERT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Monitor USDA Export Sales</t>
+    </r>
+  </si>
+  <si>
+    <t>USDA Snapshot Jan 8</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>Rapid response: USDA analysis</t>
+  </si>
+  <si>
+    <t>Research oilseed demand trends</t>
+  </si>
+  <si>
+    <t>Market Structure Jan 9</t>
+  </si>
+  <si>
+    <t>Write Market Structure draft</t>
+  </si>
+  <si>
+    <t>Create supporting charts (2)</t>
+  </si>
+  <si>
+    <t>Edit Market Structure</t>
+  </si>
+  <si>
+    <t>Pull basis/spread data</t>
+  </si>
+  <si>
+    <t>Microstructure Jan 10</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Analyze basis signals</t>
+  </si>
+  <si>
+    <t>Create basis chart</t>
+  </si>
+  <si>
+    <t>Write interpretation</t>
+  </si>
+  <si>
+    <t>Review week's themes</t>
+  </si>
+  <si>
+    <t>Weekend Recap Jan 11</t>
+  </si>
+  <si>
+    <t>Select/create 3 charts</t>
+  </si>
+  <si>
+    <t>Write 5-bullet summary</t>
+  </si>
+  <si>
+    <t>Schedule all Week 1 posts</t>
+  </si>
+  <si>
+    <t>All Week 1</t>
+  </si>
+  <si>
+    <t>Scheduling</t>
+  </si>
+  <si>
+    <r>
+      <t>SETUP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Create SAF Watch template</t>
+    </r>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <r>
+      <t>SETUP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Create Chart of Day template</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SETUP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Set up Buffer account</t>
+    </r>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <r>
+      <t>SETUP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Build USDA scenario templates</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -879,8 +1118,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1185,7 +1439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5367,4 +5621,669 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776162B3-B083-4EAA-A2C5-9E5F59A250D6}">
+  <dimension ref="C3:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="4">
+        <v>46024</v>
+      </c>
+      <c r="G6" s="4">
+        <v>46026</v>
+      </c>
+      <c r="H6" s="1">
+        <v>60</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="4">
+        <v>46026</v>
+      </c>
+      <c r="G7" s="4">
+        <v>46026</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" s="4">
+        <v>46026</v>
+      </c>
+      <c r="G8" s="4">
+        <v>46026</v>
+      </c>
+      <c r="H8" s="1">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="4">
+        <v>46027</v>
+      </c>
+      <c r="G9" s="4">
+        <v>46027</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F10" s="4">
+        <v>46027</v>
+      </c>
+      <c r="G10" s="4">
+        <v>46027</v>
+      </c>
+      <c r="H10" s="1">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F11" s="4">
+        <v>46027</v>
+      </c>
+      <c r="G11" s="4">
+        <v>46027</v>
+      </c>
+      <c r="H11" s="1">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="4">
+        <v>46028</v>
+      </c>
+      <c r="G12" s="4">
+        <v>46028</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="4">
+        <v>46028</v>
+      </c>
+      <c r="G13" s="4">
+        <v>46028</v>
+      </c>
+      <c r="H13" s="1">
+        <v>30</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F14" s="4">
+        <v>46028</v>
+      </c>
+      <c r="G14" s="4">
+        <v>46028</v>
+      </c>
+      <c r="H14" s="1">
+        <v>25</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F15" s="4">
+        <v>46030</v>
+      </c>
+      <c r="G15" s="4">
+        <v>46030</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F16" s="4">
+        <v>46030</v>
+      </c>
+      <c r="G16" s="4">
+        <v>46030</v>
+      </c>
+      <c r="H16" s="1">
+        <v>30</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F17" s="4">
+        <v>46028</v>
+      </c>
+      <c r="G17" s="4">
+        <v>46030</v>
+      </c>
+      <c r="H17" s="1">
+        <v>90</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F18" s="4">
+        <v>46030</v>
+      </c>
+      <c r="G18" s="4">
+        <v>46030</v>
+      </c>
+      <c r="H18" s="1">
+        <v>60</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" s="4">
+        <v>46030</v>
+      </c>
+      <c r="G19" s="4">
+        <v>46030</v>
+      </c>
+      <c r="H19" s="1">
+        <v>60</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F20" s="4">
+        <v>46031</v>
+      </c>
+      <c r="G20" s="4">
+        <v>46031</v>
+      </c>
+      <c r="H20" s="1">
+        <v>30</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F21" s="4">
+        <v>46031</v>
+      </c>
+      <c r="G21" s="4">
+        <v>46031</v>
+      </c>
+      <c r="H21" s="1">
+        <v>20</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F22" s="4">
+        <v>46031</v>
+      </c>
+      <c r="G22" s="4">
+        <v>46031</v>
+      </c>
+      <c r="H22" s="1">
+        <v>25</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F23" s="4">
+        <v>46031</v>
+      </c>
+      <c r="G23" s="4">
+        <v>46031</v>
+      </c>
+      <c r="H23" s="1">
+        <v>30</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F24" s="4">
+        <v>46032</v>
+      </c>
+      <c r="G24" s="4">
+        <v>46032</v>
+      </c>
+      <c r="H24" s="1">
+        <v>30</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F25" s="4">
+        <v>46032</v>
+      </c>
+      <c r="G25" s="4">
+        <v>46032</v>
+      </c>
+      <c r="H25" s="1">
+        <v>30</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F26" s="4">
+        <v>46032</v>
+      </c>
+      <c r="G26" s="4">
+        <v>46032</v>
+      </c>
+      <c r="H26" s="1">
+        <v>45</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F27" s="4">
+        <v>46033</v>
+      </c>
+      <c r="G27" s="4">
+        <v>46033</v>
+      </c>
+      <c r="H27" s="1">
+        <v>20</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F28" s="4">
+        <v>46026</v>
+      </c>
+      <c r="G28" s="4">
+        <v>46027</v>
+      </c>
+      <c r="H28" s="1">
+        <v>30</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="C29" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F29" s="4">
+        <v>46023</v>
+      </c>
+      <c r="G29" s="4">
+        <v>46025</v>
+      </c>
+      <c r="H29" s="1">
+        <v>180</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="C30" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F30" s="4">
+        <v>46023</v>
+      </c>
+      <c r="G30" s="4">
+        <v>46025</v>
+      </c>
+      <c r="H30" s="1">
+        <v>120</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C31" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F31" s="4">
+        <v>46023</v>
+      </c>
+      <c r="G31" s="4">
+        <v>46024</v>
+      </c>
+      <c r="H31" s="1">
+        <v>60</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="C32" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F32" s="4">
+        <v>46023</v>
+      </c>
+      <c r="G32" s="4">
+        <v>46025</v>
+      </c>
+      <c r="H32" s="1">
+        <v>180</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>